--- a/[ TEST CASES ] SauceDemo.xlsx
+++ b/[ TEST CASES ] SauceDemo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\SEFTI\Testing Projects\Playwright_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F6A13-1F1B-4EAD-A9D9-40701DDD3677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C67A99-DB69-422E-8513-69B536BC74C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" xr2:uid="{F32EBC98-34A5-4688-80D9-9A021685A055}"/>
   </bookViews>
   <sheets>
-    <sheet name="Regression" sheetId="1" r:id="rId1"/>
+    <sheet name="Manual Test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1032,7 +1032,7 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,191 +1102,161 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,23 +1274,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1759,41 +1717,41 @@
   <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K81" sqref="K81"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="88" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" style="88" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="88" customWidth="1"/>
-    <col min="4" max="4" width="14" style="87" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="88" customWidth="1"/>
-    <col min="6" max="6" width="16" style="88" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="88" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="88" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="87" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="99" customWidth="1"/>
-    <col min="11" max="11" width="38.42578125" style="88" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" style="88" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="87" customWidth="1"/>
-    <col min="14" max="14" width="28.42578125" style="87" customWidth="1"/>
-    <col min="15" max="16384" width="12.5703125" style="88"/>
+    <col min="1" max="1" width="2.85546875" style="78" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="78" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="78" customWidth="1"/>
+    <col min="4" max="4" width="14" style="77" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="78" customWidth="1"/>
+    <col min="6" max="6" width="16" style="78" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="78" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="78" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="77" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" style="85" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" style="78" customWidth="1"/>
+    <col min="12" max="12" width="27.5703125" style="78" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="77" customWidth="1"/>
+    <col min="14" max="14" width="28.42578125" style="77" customWidth="1"/>
+    <col min="15" max="16384" width="12.5703125" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="76"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -1846,10 +1804,10 @@
     </row>
     <row r="3" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
-      <c r="B3" s="40">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="57" t="s">
         <v>146</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1882,27 +1840,27 @@
       <c r="M3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="89"/>
+      <c r="N3" s="79"/>
     </row>
     <row r="4" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
-      <c r="B4" s="42">
+      <c r="B4" s="36">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="46" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="1">
@@ -1914,23 +1872,23 @@
       <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="90"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
       <c r="I5" s="1">
         <v>2</v>
       </c>
@@ -1940,19 +1898,19 @@
       <c r="K5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="91"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="1">
         <v>3</v>
       </c>
@@ -1962,19 +1920,19 @@
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="91"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="81"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="1">
         <v>4</v>
       </c>
@@ -1984,29 +1942,29 @@
       <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="92"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="82"/>
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="42">
+      <c r="B8" s="36">
         <v>3</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="46" t="s">
         <v>49</v>
       </c>
       <c r="I8" s="1">
@@ -2021,20 +1979,20 @@
       <c r="L8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="93"/>
+      <c r="N8" s="80"/>
     </row>
     <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="1">
         <v>2</v>
       </c>
@@ -2047,18 +2005,18 @@
       <c r="L9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="94"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="81"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="1">
         <v>3</v>
       </c>
@@ -2071,18 +2029,18 @@
       <c r="L10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="94"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="1">
         <v>4</v>
       </c>
@@ -2095,28 +2053,28 @@
       <c r="L11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="95"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="82"/>
     </row>
     <row r="12" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="42">
+      <c r="B12" s="36">
         <v>4</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="35" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="46" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="1">
@@ -2128,23 +2086,23 @@
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="30" t="s">
+      <c r="M12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="90"/>
+      <c r="N12" s="80"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="1">
         <v>2</v>
       </c>
@@ -2154,19 +2112,19 @@
       <c r="K13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="27"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="91"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="1">
         <v>3</v>
       </c>
@@ -2176,19 +2134,19 @@
       <c r="K14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="27"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="91"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="81"/>
     </row>
     <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
       <c r="I15" s="1">
         <v>4</v>
       </c>
@@ -2198,29 +2156,29 @@
       <c r="K15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="92"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="82"/>
     </row>
     <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="42">
+      <c r="B16" s="36">
         <v>5</v>
       </c>
-      <c r="C16" s="43"/>
-      <c r="D16" s="52" t="s">
+      <c r="C16" s="58"/>
+      <c r="D16" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="46" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="1">
@@ -2232,23 +2190,23 @@
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="90"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="1">
         <v>2</v>
       </c>
@@ -2258,19 +2216,19 @@
       <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="91"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="81"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="1">
         <v>3</v>
       </c>
@@ -2280,19 +2238,19 @@
       <c r="K18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="91"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="81"/>
     </row>
     <row r="19" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="1">
         <v>4</v>
       </c>
@@ -2302,29 +2260,29 @@
       <c r="K19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="92"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="82"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="42">
+      <c r="B20" s="36">
         <v>6</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="52" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="46" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="1">
@@ -2339,20 +2297,20 @@
       <c r="L20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="90"/>
+      <c r="N20" s="80"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="1">
         <v>2</v>
       </c>
@@ -2365,28 +2323,28 @@
       <c r="L21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M21" s="51"/>
-      <c r="N21" s="92"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="42">
+      <c r="B22" s="36">
         <v>7</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="1">
@@ -2398,23 +2356,23 @@
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="90"/>
+      <c r="N22" s="80"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
       <c r="I23" s="1">
         <v>2</v>
       </c>
@@ -2424,19 +2382,19 @@
       <c r="K23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="27"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="91"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="81"/>
     </row>
     <row r="24" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="1">
         <v>3</v>
       </c>
@@ -2446,29 +2404,29 @@
       <c r="K24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="92"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="82"/>
     </row>
     <row r="25" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25" s="42">
+      <c r="B25" s="36">
         <v>8</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="52" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="46" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="1">
@@ -2480,23 +2438,23 @@
       <c r="K25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="90"/>
+      <c r="N25" s="80"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
       <c r="I26" s="1">
         <v>2</v>
       </c>
@@ -2506,19 +2464,19 @@
       <c r="K26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="27"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="91"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="81"/>
     </row>
     <row r="27" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
       <c r="I27" s="5">
         <v>3</v>
       </c>
@@ -2528,1824 +2486,2052 @@
       <c r="K27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="91"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="81"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="42">
+      <c r="B28" s="36">
         <v>9</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="60" t="s">
+      <c r="J28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K28" s="61" t="s">
+      <c r="K28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="45" t="s">
+      <c r="L28" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="58" t="s">
+      <c r="M28" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="96"/>
+      <c r="N28" s="83"/>
     </row>
     <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="42"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="64"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="40">
+      <c r="H29" s="63"/>
+      <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="60" t="s">
+      <c r="J29" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="96"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="83"/>
     </row>
     <row r="30" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="42">
+      <c r="B30" s="36">
         <v>11</v>
       </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="45" t="s">
+      <c r="C30" s="68"/>
+      <c r="D30" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="59" t="s">
+      <c r="G30" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="59" t="s">
+      <c r="H30" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="60" t="s">
+      <c r="J30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="61" t="s">
+      <c r="K30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="45" t="s">
+      <c r="L30" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="58" t="s">
+      <c r="M30" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N30" s="96"/>
+      <c r="N30" s="83"/>
     </row>
     <row r="31" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="42"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="64"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="40">
+      <c r="H31" s="63"/>
+      <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="60" t="s">
+      <c r="J31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="65" t="s">
+      <c r="K31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="47"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="96"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="83"/>
     </row>
     <row r="32" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="42">
+      <c r="B32" s="36">
         <v>12</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="45" t="s">
+      <c r="C32" s="68"/>
+      <c r="D32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="59" t="s">
+      <c r="G32" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H32" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="I32" s="66">
+      <c r="I32" s="28">
         <v>1</v>
       </c>
-      <c r="J32" s="60" t="s">
+      <c r="J32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="61" t="s">
+      <c r="K32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="45" t="s">
+      <c r="L32" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="58" t="s">
+      <c r="M32" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N32" s="93"/>
+      <c r="N32" s="80"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="42"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="64"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="40">
+      <c r="H33" s="63"/>
+      <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="60" t="s">
+      <c r="J33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K33" s="65" t="s">
+      <c r="K33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="47"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="95"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="82"/>
     </row>
     <row r="34" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="42">
+      <c r="B34" s="36">
         <v>13</v>
       </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="45" t="s">
+      <c r="C34" s="68"/>
+      <c r="D34" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="59" t="s">
+      <c r="G34" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="66">
+      <c r="I34" s="28">
         <v>1</v>
       </c>
-      <c r="J34" s="60" t="s">
+      <c r="J34" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="61" t="s">
+      <c r="K34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="58" t="s">
+      <c r="M34" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N34" s="93"/>
+      <c r="N34" s="80"/>
     </row>
     <row r="35" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="42"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="64"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="40">
+      <c r="H35" s="63"/>
+      <c r="I35" s="1">
         <v>2</v>
       </c>
-      <c r="J35" s="60" t="s">
+      <c r="J35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="65" t="s">
+      <c r="K35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L35" s="47"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="95"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="82"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="42">
+      <c r="B36" s="36">
         <v>14</v>
       </c>
-      <c r="C36" s="62"/>
-      <c r="D36" s="45" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="H36" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="1">
         <v>1</v>
       </c>
-      <c r="J36" s="60" t="s">
+      <c r="J36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="61" t="s">
+      <c r="K36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L36" s="40" t="s">
+      <c r="L36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="58" t="s">
+      <c r="M36" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="59" t="s">
+      <c r="N36" s="63" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="42"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="64"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="40">
+      <c r="H37" s="63"/>
+      <c r="I37" s="1">
         <v>2</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="65" t="s">
+      <c r="K37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="67" t="s">
+      <c r="L37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="42"/>
-      <c r="N37" s="97"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="84"/>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="42">
+      <c r="B38" s="36">
         <v>15</v>
       </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="45" t="s">
+      <c r="C38" s="68"/>
+      <c r="D38" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="58" t="s">
+      <c r="F38" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="G38" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="H38" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="60" t="s">
+      <c r="J38" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K38" s="61" t="s">
+      <c r="K38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="40" t="s">
+      <c r="L38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="58" t="s">
+      <c r="M38" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="68" t="s">
+      <c r="N38" s="46" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="42"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="64"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="40">
+      <c r="H39" s="63"/>
+      <c r="I39" s="1">
         <v>2</v>
       </c>
-      <c r="J39" s="60" t="s">
+      <c r="J39" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K39" s="65" t="s">
+      <c r="K39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L39" s="67" t="s">
+      <c r="L39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M39" s="42"/>
-      <c r="N39" s="69"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="65"/>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="42">
+      <c r="B40" s="36">
         <v>16</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="45" t="s">
+      <c r="C40" s="68"/>
+      <c r="D40" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="E40" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="59" t="s">
+      <c r="H40" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="66">
+      <c r="I40" s="28">
         <v>1</v>
       </c>
-      <c r="J40" s="60" t="s">
+      <c r="J40" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K40" s="61" t="s">
+      <c r="K40" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L40" s="40" t="s">
+      <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="58" t="s">
+      <c r="M40" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="69"/>
+      <c r="N40" s="65"/>
     </row>
     <row r="41" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="42"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="64"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="40">
+      <c r="H41" s="63"/>
+      <c r="I41" s="1">
         <v>2</v>
       </c>
-      <c r="J41" s="60" t="s">
+      <c r="J41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K41" s="65" t="s">
+      <c r="K41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L41" s="67" t="s">
+      <c r="L41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M41" s="42"/>
-      <c r="N41" s="69"/>
+      <c r="M41" s="36"/>
+      <c r="N41" s="65"/>
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="42">
+      <c r="B42" s="36">
         <v>17</v>
       </c>
-      <c r="C42" s="62"/>
-      <c r="D42" s="45" t="s">
+      <c r="C42" s="68"/>
+      <c r="D42" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="58" t="s">
+      <c r="F42" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="59" t="s">
+      <c r="H42" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="I42" s="66">
+      <c r="I42" s="28">
         <v>1</v>
       </c>
-      <c r="J42" s="60" t="s">
+      <c r="J42" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K42" s="61" t="s">
+      <c r="K42" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="40" t="s">
+      <c r="L42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="58" t="s">
+      <c r="M42" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="69"/>
+      <c r="N42" s="65"/>
     </row>
     <row r="43" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="42"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="64"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="40">
+      <c r="H43" s="63"/>
+      <c r="I43" s="1">
         <v>2</v>
       </c>
-      <c r="J43" s="60" t="s">
+      <c r="J43" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K43" s="65" t="s">
+      <c r="K43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L43" s="67" t="s">
+      <c r="L43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="42"/>
-      <c r="N43" s="71"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="66"/>
     </row>
     <row r="44" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
-      <c r="B44" s="40">
+      <c r="B44" s="1">
         <v>18</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="70" t="s">
         <v>148</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="66" t="s">
+      <c r="F44" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="74" t="s">
+      <c r="H44" s="30" t="s">
         <v>90</v>
       </c>
       <c r="I44" s="15">
         <v>1</v>
       </c>
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K44" s="76" t="s">
+      <c r="K44" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="77" t="s">
+      <c r="L44" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="M44" s="66" t="s">
+      <c r="M44" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="98"/>
+      <c r="N44" s="79"/>
     </row>
     <row r="45" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45"/>
-      <c r="B45" s="40">
+      <c r="B45" s="1">
         <v>19</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="66" t="s">
+      <c r="C45" s="71"/>
+      <c r="D45" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="66" t="s">
+      <c r="F45" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="67" t="s">
+      <c r="G45" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H45" s="80" t="s">
+      <c r="H45" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="60" t="s">
+      <c r="J45" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K45" s="60" t="s">
+      <c r="K45" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L45" s="40" t="s">
+      <c r="L45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M45" s="66" t="s">
+      <c r="M45" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N45" s="98"/>
+      <c r="N45" s="79"/>
     </row>
     <row r="46" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="42">
+      <c r="B46" s="36">
         <v>20</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="58" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="E46" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F46" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="59" t="s">
+      <c r="G46" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="1">
         <v>1</v>
       </c>
-      <c r="J46" s="60" t="s">
+      <c r="J46" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K46" s="60" t="s">
+      <c r="K46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L46" s="42" t="s">
+      <c r="L46" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="58" t="s">
+      <c r="M46" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N46" s="93"/>
+      <c r="N46" s="80"/>
     </row>
     <row r="47" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="40">
+      <c r="B47" s="36"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="1">
         <v>2</v>
       </c>
-      <c r="J47" s="60" t="s">
+      <c r="J47" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="K47" s="80" t="s">
+      <c r="K47" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="L47" s="42"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="95"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="82"/>
     </row>
     <row r="48" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
-      <c r="B48" s="42">
+      <c r="B48" s="36">
         <v>20</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="58" t="s">
+      <c r="C48" s="71"/>
+      <c r="D48" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="E48" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="F48" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="59" t="s">
+      <c r="G48" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H48" s="59" t="s">
+      <c r="H48" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="1">
         <v>1</v>
       </c>
-      <c r="J48" s="60" t="s">
+      <c r="J48" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K48" s="60" t="s">
+      <c r="K48" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L48" s="42" t="s">
+      <c r="L48" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M48" s="58" t="s">
+      <c r="M48" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N48" s="93"/>
+      <c r="N48" s="80"/>
     </row>
     <row r="49" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="40">
+      <c r="B49" s="36"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="60" t="s">
+      <c r="J49" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K49" s="80" t="s">
+      <c r="K49" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="L49" s="42"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="95"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="82"/>
     </row>
     <row r="50" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
-      <c r="B50" s="42">
+      <c r="B50" s="36">
         <v>21</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="71"/>
+      <c r="D50" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="E50" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="58" t="s">
+      <c r="F50" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="59" t="s">
+      <c r="G50" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H50" s="59" t="s">
+      <c r="H50" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="1">
         <v>1</v>
       </c>
-      <c r="J50" s="60" t="s">
+      <c r="J50" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K50" s="60" t="s">
+      <c r="K50" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L50" s="42" t="s">
+      <c r="L50" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="58" t="s">
+      <c r="M50" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N50" s="93"/>
+      <c r="N50" s="80"/>
     </row>
     <row r="51" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="40">
+      <c r="B51" s="36"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="1">
         <v>2</v>
       </c>
-      <c r="J51" s="60" t="s">
+      <c r="J51" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K51" s="80" t="s">
+      <c r="K51" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="L51" s="42"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="95"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="82"/>
     </row>
     <row r="52" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
-      <c r="B52" s="42">
+      <c r="B52" s="36">
         <v>22</v>
       </c>
-      <c r="C52" s="78"/>
-      <c r="D52" s="58" t="s">
+      <c r="C52" s="71"/>
+      <c r="D52" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="58" t="s">
+      <c r="F52" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="59" t="s">
+      <c r="G52" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="59" t="s">
+      <c r="H52" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="60" t="s">
+      <c r="J52" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="K52" s="60" t="s">
+      <c r="K52" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L52" s="42" t="s">
+      <c r="L52" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="58" t="s">
+      <c r="M52" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N52" s="93"/>
+      <c r="N52" s="80"/>
     </row>
     <row r="53" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="40">
+      <c r="B53" s="36"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="1">
         <v>2</v>
       </c>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K53" s="80" t="s">
+      <c r="K53" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="L53" s="42"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="94"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="81"/>
     </row>
     <row r="54" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="40">
+      <c r="B54" s="36"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="1">
         <v>3</v>
       </c>
-      <c r="J54" s="60" t="s">
+      <c r="J54" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="K54" s="80" t="s">
+      <c r="K54" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="L54" s="42"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="95"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="82"/>
     </row>
     <row r="55" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
-      <c r="B55" s="45">
+      <c r="B55" s="43">
         <v>23</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="F55" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="59" t="s">
+      <c r="G55" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I55" s="1">
         <v>1</v>
       </c>
-      <c r="J55" s="60" t="s">
+      <c r="J55" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K55" s="60" t="s">
+      <c r="K55" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L55" s="42" t="s">
+      <c r="L55" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M55" s="58" t="s">
+      <c r="M55" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="96"/>
+      <c r="N55" s="83"/>
     </row>
     <row r="56" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="40">
+      <c r="B56" s="44"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="1">
         <v>2</v>
       </c>
-      <c r="J56" s="60" t="s">
+      <c r="J56" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K56" s="80" t="s">
+      <c r="K56" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L56" s="42"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="96"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="83"/>
     </row>
     <row r="57" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="40">
+      <c r="B57" s="44"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="1">
         <v>3</v>
       </c>
-      <c r="J57" s="60" t="s">
+      <c r="J57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K57" s="80" t="s">
+      <c r="K57" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L57" s="42"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="96"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="83"/>
     </row>
     <row r="58" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="40">
+      <c r="B58" s="44"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="1">
         <v>4</v>
       </c>
-      <c r="J58" s="84" t="s">
+      <c r="J58" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K58" s="80" t="s">
+      <c r="K58" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L58" s="42"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="96"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="83"/>
     </row>
     <row r="59" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="40">
+      <c r="B59" s="44"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="1">
         <v>5</v>
       </c>
-      <c r="J59" s="84" t="s">
+      <c r="J59" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K59" s="80" t="s">
+      <c r="K59" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="42"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="96"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="62"/>
+      <c r="N59" s="83"/>
     </row>
     <row r="60" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="40">
+      <c r="B60" s="45"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="1">
         <v>6</v>
       </c>
-      <c r="J60" s="84" t="s">
+      <c r="J60" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="K60" s="80" t="s">
+      <c r="K60" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="L60" s="42"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="96"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="83"/>
     </row>
     <row r="61" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
-      <c r="B61" s="45">
+      <c r="B61" s="43">
         <v>24</v>
       </c>
-      <c r="C61" s="83"/>
-      <c r="D61" s="58" t="s">
+      <c r="C61" s="74"/>
+      <c r="D61" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="E61" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="59" t="s">
+      <c r="G61" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="59" t="s">
+      <c r="H61" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="I61" s="40">
+      <c r="I61" s="1">
         <v>1</v>
       </c>
-      <c r="J61" s="60" t="s">
+      <c r="J61" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K61" s="60" t="s">
+      <c r="K61" s="9" t="s">
         <v>113</v>
       </c>
       <c r="L61" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="M61" s="58" t="s">
+      <c r="M61" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="96"/>
+      <c r="N61" s="83"/>
     </row>
     <row r="62" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="40">
+      <c r="B62" s="44"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="1">
         <v>2</v>
       </c>
-      <c r="J62" s="84" t="s">
+      <c r="J62" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K62" s="80" t="s">
+      <c r="K62" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="L62" s="80" t="s">
+      <c r="L62" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="M62" s="58"/>
-      <c r="N62" s="96"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="83"/>
     </row>
     <row r="63" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
-      <c r="B63" s="45">
+      <c r="B63" s="43">
         <v>25</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="58" t="s">
+      <c r="C63" s="74"/>
+      <c r="D63" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F63" s="58" t="s">
+      <c r="F63" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="59" t="s">
+      <c r="G63" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="59" t="s">
+      <c r="H63" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="I63" s="40">
+      <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="J63" s="60" t="s">
+      <c r="J63" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K63" s="60" t="s">
+      <c r="K63" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L63" s="42" t="s">
+      <c r="L63" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M63" s="58" t="s">
+      <c r="M63" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N63" s="96"/>
+      <c r="N63" s="83"/>
     </row>
     <row r="64" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="40">
+      <c r="B64" s="44"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="1">
         <v>2</v>
       </c>
-      <c r="J64" s="60" t="s">
+      <c r="J64" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K64" s="80" t="s">
+      <c r="K64" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L64" s="42"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="96"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="83"/>
     </row>
     <row r="65" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="40">
+      <c r="B65" s="44"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="1">
         <v>3</v>
       </c>
-      <c r="J65" s="84" t="s">
+      <c r="J65" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K65" s="80" t="s">
+      <c r="K65" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L65" s="42"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="96"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="83"/>
     </row>
     <row r="66" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="40">
+      <c r="B66" s="44"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="1">
         <v>4</v>
       </c>
-      <c r="J66" s="84" t="s">
+      <c r="J66" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K66" s="80" t="s">
+      <c r="K66" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="L66" s="42"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="96"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="83"/>
     </row>
     <row r="67" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="B67" s="45">
+      <c r="B67" s="43">
         <v>26</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="58" t="s">
+      <c r="C67" s="74"/>
+      <c r="D67" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="58" t="s">
+      <c r="F67" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="G67" s="59" t="s">
+      <c r="G67" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="H67" s="59" t="s">
+      <c r="H67" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="1">
         <v>1</v>
       </c>
-      <c r="J67" s="60" t="s">
+      <c r="J67" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="60" t="s">
+      <c r="K67" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L67" s="42" t="s">
+      <c r="L67" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M67" s="58" t="s">
+      <c r="M67" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N67" s="96"/>
+      <c r="N67" s="83"/>
     </row>
     <row r="68" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="40">
+      <c r="B68" s="44"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="1">
         <v>2</v>
       </c>
-      <c r="J68" s="60" t="s">
+      <c r="J68" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K68" s="80" t="s">
+      <c r="K68" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L68" s="42"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="96"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="83"/>
     </row>
     <row r="69" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="40">
+      <c r="B69" s="44"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="1">
         <v>3</v>
       </c>
-      <c r="J69" s="84" t="s">
+      <c r="J69" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K69" s="80" t="s">
+      <c r="K69" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L69" s="42"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="96"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="83"/>
     </row>
     <row r="70" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="40">
+      <c r="B70" s="44"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="1">
         <v>4</v>
       </c>
-      <c r="J70" s="84" t="s">
+      <c r="J70" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K70" s="80" t="s">
+      <c r="K70" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="L70" s="42"/>
-      <c r="M70" s="58"/>
-      <c r="N70" s="96"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="83"/>
     </row>
     <row r="71" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="B71" s="45">
+      <c r="B71" s="43">
         <v>27</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="58" t="s">
+      <c r="C71" s="74"/>
+      <c r="D71" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="57" t="s">
+      <c r="E71" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F71" s="58" t="s">
+      <c r="F71" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="59" t="s">
+      <c r="G71" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="H71" s="59" t="s">
+      <c r="H71" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="60" t="s">
+      <c r="J71" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K71" s="60" t="s">
+      <c r="K71" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L71" s="42" t="s">
+      <c r="L71" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="M71" s="58" t="s">
+      <c r="M71" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="N71" s="96"/>
+      <c r="N71" s="83"/>
     </row>
     <row r="72" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="40">
+      <c r="B72" s="44"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="1">
         <v>2</v>
       </c>
-      <c r="J72" s="60" t="s">
+      <c r="J72" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K72" s="80" t="s">
+      <c r="K72" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L72" s="42"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="96"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="83"/>
     </row>
     <row r="73" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="57"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="40">
+      <c r="B73" s="44"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
+      <c r="I73" s="1">
         <v>3</v>
       </c>
-      <c r="J73" s="84" t="s">
+      <c r="J73" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="K73" s="80" t="s">
+      <c r="K73" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="L73" s="42"/>
-      <c r="M73" s="58"/>
-      <c r="N73" s="96"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="83"/>
     </row>
     <row r="74" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="40">
+      <c r="B74" s="44"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="1">
         <v>4</v>
       </c>
-      <c r="J74" s="84" t="s">
+      <c r="J74" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K74" s="80" t="s">
+      <c r="K74" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="42"/>
-      <c r="M74" s="58"/>
-      <c r="N74" s="96"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="83"/>
     </row>
     <row r="75" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
-      <c r="B75" s="45">
+      <c r="B75" s="43">
         <v>28</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="58" t="s">
+      <c r="C75" s="74"/>
+      <c r="D75" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="57" t="s">
+      <c r="E75" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F75" s="58" t="s">
+      <c r="F75" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="59" t="s">
+      <c r="G75" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="H75" s="59" t="s">
+      <c r="H75" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="I75" s="40">
+      <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="J75" s="60" t="s">
+      <c r="J75" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K75" s="60" t="s">
+      <c r="K75" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L75" s="85" t="s">
+      <c r="L75" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M75" s="58" t="s">
+      <c r="M75" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N75" s="96"/>
+      <c r="N75" s="83"/>
     </row>
     <row r="76" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="83"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="58"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="40">
+      <c r="B76" s="44"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="1">
         <v>2</v>
       </c>
-      <c r="J76" s="84" t="s">
+      <c r="J76" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="K76" s="80" t="s">
+      <c r="K76" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L76" s="85" t="s">
+      <c r="L76" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M76" s="58"/>
-      <c r="N76" s="96"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="57"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="40">
+      <c r="B77" s="44"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="1">
         <v>3</v>
       </c>
-      <c r="J77" s="84" t="s">
+      <c r="J77" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K77" s="80" t="s">
+      <c r="K77" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="L77" s="74" t="s">
+      <c r="L77" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="M77" s="58"/>
-      <c r="N77" s="96"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="83"/>
     </row>
     <row r="78" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
-      <c r="B78" s="45">
+      <c r="B78" s="43">
         <v>29</v>
       </c>
-      <c r="C78" s="83"/>
-      <c r="D78" s="58" t="s">
+      <c r="C78" s="74"/>
+      <c r="D78" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="E78" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F78" s="58" t="s">
+      <c r="F78" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="G78" s="59" t="s">
+      <c r="G78" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="H78" s="59" t="s">
+      <c r="H78" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="1">
         <v>1</v>
       </c>
-      <c r="J78" s="60" t="s">
+      <c r="J78" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K78" s="60" t="s">
+      <c r="K78" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L78" s="85" t="s">
+      <c r="L78" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M78" s="58" t="s">
+      <c r="M78" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N78" s="96"/>
+      <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
-      <c r="B79" s="46"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="57"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="40">
+      <c r="B79" s="44"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="1">
         <v>2</v>
       </c>
-      <c r="J79" s="60" t="s">
+      <c r="J79" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K79" s="80" t="s">
+      <c r="K79" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L79" s="85" t="s">
+      <c r="L79" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M79" s="58"/>
-      <c r="N79" s="96"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="83"/>
     </row>
     <row r="80" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="83"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="40">
+      <c r="B80" s="44"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="1">
         <v>3</v>
       </c>
-      <c r="J80" s="84" t="s">
+      <c r="J80" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K80" s="80" t="s">
+      <c r="K80" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="L80" s="74" t="s">
+      <c r="L80" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="M80" s="58"/>
-      <c r="N80" s="96"/>
+      <c r="M80" s="62"/>
+      <c r="N80" s="83"/>
     </row>
     <row r="81" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
-      <c r="B81" s="45">
+      <c r="B81" s="43">
         <v>30</v>
       </c>
-      <c r="C81" s="83"/>
-      <c r="D81" s="58" t="s">
+      <c r="C81" s="74"/>
+      <c r="D81" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="57" t="s">
+      <c r="E81" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F81" s="58" t="s">
+      <c r="F81" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="G81" s="59" t="s">
+      <c r="G81" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="H81" s="59" t="s">
+      <c r="H81" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="1">
         <v>1</v>
       </c>
-      <c r="J81" s="60" t="s">
+      <c r="J81" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K81" s="60" t="s">
+      <c r="K81" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L81" s="85" t="s">
+      <c r="L81" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M81" s="58" t="s">
+      <c r="M81" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N81" s="96"/>
+      <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="40">
+      <c r="B82" s="44"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="1">
         <v>2</v>
       </c>
-      <c r="J82" s="60" t="s">
+      <c r="J82" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K82" s="80" t="s">
+      <c r="K82" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L82" s="85" t="s">
+      <c r="L82" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M82" s="58"/>
-      <c r="N82" s="96"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="83"/>
     </row>
     <row r="83" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
-      <c r="B83" s="46"/>
-      <c r="C83" s="83"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="57"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="59"/>
-      <c r="I83" s="40">
+      <c r="B83" s="44"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="1">
         <v>3</v>
       </c>
-      <c r="J83" s="84" t="s">
+      <c r="J83" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K83" s="80" t="s">
+      <c r="K83" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="L83" s="80" t="s">
+      <c r="L83" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="M83" s="58"/>
-      <c r="N83" s="96"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="83"/>
     </row>
     <row r="84" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
-      <c r="B84" s="45">
+      <c r="B84" s="43">
         <v>30</v>
       </c>
-      <c r="C84" s="83"/>
-      <c r="D84" s="58" t="s">
+      <c r="C84" s="74"/>
+      <c r="D84" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="E84" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="F84" s="58" t="s">
+      <c r="F84" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="G84" s="59" t="s">
+      <c r="G84" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="H84" s="59" t="s">
+      <c r="H84" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="1">
         <v>1</v>
       </c>
-      <c r="J84" s="60" t="s">
+      <c r="J84" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K84" s="60" t="s">
+      <c r="K84" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L84" s="66" t="s">
+      <c r="L84" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M84" s="58" t="s">
+      <c r="M84" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N84" s="96"/>
+      <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="83"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="57"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="40">
+      <c r="B85" s="44"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="1">
         <v>2</v>
       </c>
-      <c r="J85" s="60" t="s">
+      <c r="J85" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="K85" s="80" t="s">
+      <c r="K85" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L85" s="66" t="s">
+      <c r="L85" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M85" s="58"/>
-      <c r="N85" s="96"/>
+      <c r="M85" s="62"/>
+      <c r="N85" s="83"/>
     </row>
     <row r="86" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
-      <c r="B86" s="46"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="40">
+      <c r="B86" s="44"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="1">
         <v>3</v>
       </c>
-      <c r="J86" s="60" t="s">
+      <c r="J86" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K86" s="80" t="s">
+      <c r="K86" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L86" s="66" t="s">
+      <c r="L86" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M86" s="58"/>
-      <c r="N86" s="96"/>
+      <c r="M86" s="62"/>
+      <c r="N86" s="83"/>
     </row>
     <row r="87" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
-      <c r="B87" s="46"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="57"/>
-      <c r="F87" s="58"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="40">
+      <c r="B87" s="44"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="1">
         <v>4</v>
       </c>
-      <c r="J87" s="60" t="s">
+      <c r="J87" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="K87" s="80" t="s">
+      <c r="K87" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L87" s="66" t="s">
+      <c r="L87" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M87" s="58"/>
-      <c r="N87" s="96"/>
+      <c r="M87" s="62"/>
+      <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
-      <c r="B88" s="46"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="40">
+      <c r="B88" s="44"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="1">
         <v>5</v>
       </c>
-      <c r="J88" s="84" t="s">
+      <c r="J88" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="K88" s="80" t="s">
+      <c r="K88" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="L88" s="67" t="s">
+      <c r="L88" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="M88" s="58"/>
-      <c r="N88" s="96"/>
+      <c r="M88" s="62"/>
+      <c r="N88" s="83"/>
     </row>
     <row r="89" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
-      <c r="B89" s="42">
+      <c r="B89" s="36">
         <v>31</v>
       </c>
-      <c r="C89" s="83"/>
-      <c r="D89" s="58" t="s">
+      <c r="C89" s="74"/>
+      <c r="D89" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="57" t="s">
+      <c r="E89" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="F89" s="58" t="s">
+      <c r="F89" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="G89" s="59" t="s">
+      <c r="G89" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="H89" s="59" t="s">
+      <c r="H89" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="1">
         <v>1</v>
       </c>
-      <c r="J89" s="60" t="s">
+      <c r="J89" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="K89" s="60" t="s">
+      <c r="K89" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L89" s="66" t="s">
+      <c r="L89" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M89" s="58" t="s">
+      <c r="M89" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="96"/>
+      <c r="N89" s="83"/>
     </row>
     <row r="90" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="40">
+      <c r="B90" s="36"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="1">
         <v>2</v>
       </c>
-      <c r="J90" s="60" t="s">
+      <c r="J90" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="K90" s="80" t="s">
+      <c r="K90" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="L90" s="67" t="s">
+      <c r="L90" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M90" s="58"/>
-      <c r="N90" s="96"/>
+      <c r="M90" s="62"/>
+      <c r="N90" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="G55:G60"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="M89:M90"/>
+    <mergeCell ref="N81:N83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="G84:G88"/>
+    <mergeCell ref="H84:H88"/>
+    <mergeCell ref="M84:M88"/>
+    <mergeCell ref="N84:N88"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="N89:N90"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:N80"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="M75:M77"/>
+    <mergeCell ref="C55:C90"/>
+    <mergeCell ref="N75:N77"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="L55:L60"/>
+    <mergeCell ref="M55:M60"/>
+    <mergeCell ref="N55:N60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="M67:M70"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="M63:M66"/>
+    <mergeCell ref="N63:N66"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="N52:N54"/>
+    <mergeCell ref="N48:N49"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="C28:C43"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="M52:M54"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="C3:C27"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H22:H24"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="D22:D24"/>
@@ -4370,234 +4556,6 @@
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="C3:C27"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="N52:N54"/>
-    <mergeCell ref="N48:N49"/>
-    <mergeCell ref="N46:N47"/>
-    <mergeCell ref="C28:C43"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:H54"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="M52:M54"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="M67:M70"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="M63:M66"/>
-    <mergeCell ref="N63:N66"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:N80"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="M75:M77"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="M89:M90"/>
-    <mergeCell ref="N81:N83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="G84:G88"/>
-    <mergeCell ref="H84:H88"/>
-    <mergeCell ref="M84:M88"/>
-    <mergeCell ref="N84:N88"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="N89:N90"/>
-    <mergeCell ref="C55:C90"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="N75:N77"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="L55:L60"/>
-    <mergeCell ref="M55:M60"/>
-    <mergeCell ref="N55:N60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="G55:G60"/>
-    <mergeCell ref="H55:H60"/>
-    <mergeCell ref="N50:N51"/>
   </mergeCells>
   <conditionalFormatting sqref="M1:M30 M32 M34 M36:M46 M48 M50 M52:M53 M55 M61 M63 M67 M71 M75 M78 M81 M84 M89 M91:M1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/[ TEST CASES ] SauceDemo.xlsx
+++ b/[ TEST CASES ] SauceDemo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26721"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\SEFTI\Testing Projects\Playwright_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C67A99-DB69-422E-8513-69B536BC74C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67798DF5-7D01-4185-A16C-C6D1508ABE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10320" xr2:uid="{F32EBC98-34A5-4688-80D9-9A021685A055}"/>
   </bookViews>
@@ -1135,128 +1135,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1720,7 +1720,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8:G11"/>
+      <selection pane="bottomRight" activeCell="H78" sqref="H78:H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1748,10 +1748,10 @@
       <c r="C1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="40"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -1807,7 +1807,7 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="67" t="s">
         <v>146</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1844,23 +1844,23 @@
     </row>
     <row r="4" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4"/>
-      <c r="B4" s="36">
+      <c r="B4" s="42">
         <v>2</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="53" t="s">
         <v>49</v>
       </c>
       <c r="I4" s="1">
@@ -1872,23 +1872,23 @@
       <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="58" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="1">
         <v>2</v>
       </c>
@@ -1898,19 +1898,19 @@
       <c r="K5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="56"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="81"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="1">
         <v>3</v>
       </c>
@@ -1920,19 +1920,19 @@
       <c r="K6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="56"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="59"/>
       <c r="N6" s="81"/>
     </row>
     <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="1">
         <v>4</v>
       </c>
@@ -1942,29 +1942,29 @@
       <c r="K7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="56"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="59"/>
       <c r="N7" s="82"/>
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8" s="36">
+      <c r="B8" s="42">
         <v>3</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="49" t="s">
+      <c r="C8" s="68"/>
+      <c r="D8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="53" t="s">
         <v>49</v>
       </c>
       <c r="I8" s="1">
@@ -1979,20 +1979,20 @@
       <c r="L8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="73" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="80"/>
     </row>
     <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="1">
         <v>2</v>
       </c>
@@ -2005,18 +2005,18 @@
       <c r="L9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="59"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="81"/>
     </row>
     <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="1">
         <v>3</v>
       </c>
@@ -2029,18 +2029,18 @@
       <c r="L10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="59"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="1">
         <v>4</v>
       </c>
@@ -2053,28 +2053,28 @@
       <c r="L11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="59"/>
+      <c r="M11" s="73"/>
       <c r="N11" s="82"/>
     </row>
     <row r="12" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12" s="36">
+      <c r="B12" s="42">
         <v>4</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="53" t="s">
         <v>27</v>
       </c>
       <c r="I12" s="1">
@@ -2086,23 +2086,23 @@
       <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="56" t="s">
+      <c r="M12" s="59" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="80"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="1">
         <v>2</v>
       </c>
@@ -2112,19 +2112,19 @@
       <c r="K13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="44"/>
-      <c r="M13" s="56"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="59"/>
       <c r="N13" s="81"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="1">
         <v>3</v>
       </c>
@@ -2134,19 +2134,19 @@
       <c r="K14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="56"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="81"/>
     </row>
     <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="1">
         <v>4</v>
       </c>
@@ -2156,29 +2156,29 @@
       <c r="K15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="55"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="60"/>
       <c r="N15" s="82"/>
     </row>
     <row r="16" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16" s="36">
+      <c r="B16" s="42">
         <v>5</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="68"/>
+      <c r="D16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="53" t="s">
         <v>29</v>
       </c>
       <c r="I16" s="1">
@@ -2190,23 +2190,23 @@
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="54" t="s">
+      <c r="M16" s="58" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
       <c r="I17" s="1">
         <v>2</v>
       </c>
@@ -2216,19 +2216,19 @@
       <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="44"/>
-      <c r="M17" s="56"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="59"/>
       <c r="N17" s="81"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="1">
         <v>3</v>
       </c>
@@ -2238,19 +2238,19 @@
       <c r="K18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L18" s="44"/>
-      <c r="M18" s="56"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="59"/>
       <c r="N18" s="81"/>
     </row>
     <row r="19" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
       <c r="I19" s="1">
         <v>4</v>
       </c>
@@ -2260,29 +2260,29 @@
       <c r="K19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="55"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="60"/>
       <c r="N19" s="82"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20" s="36">
+      <c r="B20" s="42">
         <v>6</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="40" t="s">
+      <c r="C20" s="68"/>
+      <c r="D20" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="53" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="1">
@@ -2297,20 +2297,20 @@
       <c r="L20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="54" t="s">
+      <c r="M20" s="58" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="80"/>
     </row>
     <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
       <c r="I21" s="1">
         <v>2</v>
       </c>
@@ -2323,28 +2323,28 @@
       <c r="L21" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="M21" s="55"/>
+      <c r="M21" s="60"/>
       <c r="N21" s="82"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
-      <c r="B22" s="36">
+      <c r="B22" s="42">
         <v>7</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="40" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="53" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="1">
@@ -2356,23 +2356,23 @@
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="43" t="s">
+      <c r="L22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="54" t="s">
+      <c r="M22" s="58" t="s">
         <v>17</v>
       </c>
       <c r="N22" s="80"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
       <c r="I23" s="1">
         <v>2</v>
       </c>
@@ -2382,19 +2382,19 @@
       <c r="K23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="44"/>
-      <c r="M23" s="56"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="59"/>
       <c r="N23" s="81"/>
     </row>
     <row r="24" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
       <c r="I24" s="1">
         <v>3</v>
       </c>
@@ -2404,29 +2404,29 @@
       <c r="K24" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="55"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="60"/>
       <c r="N24" s="82"/>
     </row>
     <row r="25" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
-      <c r="B25" s="36">
+      <c r="B25" s="42">
         <v>8</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="53" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="1">
@@ -2438,23 +2438,23 @@
       <c r="K25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="43" t="s">
+      <c r="L25" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M25" s="54" t="s">
+      <c r="M25" s="58" t="s">
         <v>17</v>
       </c>
       <c r="N25" s="80"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
       <c r="I26" s="1">
         <v>2</v>
       </c>
@@ -2464,19 +2464,19 @@
       <c r="K26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="44"/>
-      <c r="M26" s="56"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="81"/>
     </row>
     <row r="27" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="5">
         <v>3</v>
       </c>
@@ -2486,31 +2486,31 @@
       <c r="K27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="56"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="81"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
-      <c r="B28" s="36">
+      <c r="B28" s="42">
         <v>9</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="G28" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="37" t="s">
         <v>67</v>
       </c>
       <c r="I28" s="1">
@@ -2522,23 +2522,23 @@
       <c r="K28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="62" t="s">
+      <c r="M28" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N28" s="83"/>
     </row>
     <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="63"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="1">
         <v>2</v>
       </c>
@@ -2548,29 +2548,29 @@
       <c r="K29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L29" s="45"/>
-      <c r="M29" s="36"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="42"/>
       <c r="N29" s="83"/>
     </row>
     <row r="30" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
-      <c r="B30" s="36">
+      <c r="B30" s="42">
         <v>11</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="48"/>
+      <c r="D30" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="63" t="s">
+      <c r="G30" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="63" t="s">
+      <c r="H30" s="37" t="s">
         <v>67</v>
       </c>
       <c r="I30" s="1">
@@ -2582,23 +2582,23 @@
       <c r="K30" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M30" s="62" t="s">
+      <c r="M30" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N30" s="83"/>
     </row>
     <row r="31" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="63"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="1">
         <v>2</v>
       </c>
@@ -2608,29 +2608,29 @@
       <c r="K31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L31" s="45"/>
-      <c r="M31" s="36"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="42"/>
       <c r="N31" s="83"/>
     </row>
     <row r="32" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
-      <c r="B32" s="36">
+      <c r="B32" s="42">
         <v>12</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="43" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="63" t="s">
+      <c r="G32" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H32" s="63" t="s">
+      <c r="H32" s="37" t="s">
         <v>68</v>
       </c>
       <c r="I32" s="28">
@@ -2642,23 +2642,23 @@
       <c r="K32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="43" t="s">
+      <c r="L32" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="62" t="s">
+      <c r="M32" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N32" s="80"/>
     </row>
     <row r="33" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="63"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="1">
         <v>2</v>
       </c>
@@ -2668,29 +2668,29 @@
       <c r="K33" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="36"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="42"/>
       <c r="N33" s="82"/>
     </row>
     <row r="34" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
-      <c r="B34" s="36">
+      <c r="B34" s="42">
         <v>13</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="43" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="63" t="s">
+      <c r="G34" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="63" t="s">
+      <c r="H34" s="37" t="s">
         <v>69</v>
       </c>
       <c r="I34" s="28">
@@ -2702,23 +2702,23 @@
       <c r="K34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L34" s="43" t="s">
+      <c r="L34" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="62" t="s">
+      <c r="M34" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N34" s="80"/>
     </row>
     <row r="35" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="63"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="37"/>
       <c r="I35" s="1">
         <v>2</v>
       </c>
@@ -2728,29 +2728,29 @@
       <c r="K35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L35" s="45"/>
-      <c r="M35" s="36"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="42"/>
       <c r="N35" s="82"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36"/>
-      <c r="B36" s="36">
+      <c r="B36" s="42">
         <v>14</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="43" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F36" s="62" t="s">
+      <c r="F36" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="63" t="s">
+      <c r="G36" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="37" t="s">
         <v>67</v>
       </c>
       <c r="I36" s="1">
@@ -2765,22 +2765,22 @@
       <c r="L36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="62" t="s">
+      <c r="M36" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N36" s="63" t="s">
+      <c r="N36" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="63"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="1">
         <v>2</v>
       </c>
@@ -2793,28 +2793,28 @@
       <c r="L37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="36"/>
+      <c r="M37" s="42"/>
       <c r="N37" s="84"/>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
-      <c r="B38" s="36">
+      <c r="B38" s="42">
         <v>15</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="48"/>
+      <c r="D38" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="63" t="s">
+      <c r="G38" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="37" t="s">
         <v>67</v>
       </c>
       <c r="I38" s="1">
@@ -2829,22 +2829,22 @@
       <c r="L38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M38" s="62" t="s">
+      <c r="M38" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="46" t="s">
+      <c r="N38" s="53" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="63"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="1">
         <v>2</v>
       </c>
@@ -2857,28 +2857,28 @@
       <c r="L39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M39" s="36"/>
-      <c r="N39" s="65"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="54"/>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40"/>
-      <c r="B40" s="36">
+      <c r="B40" s="42">
         <v>16</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="43" t="s">
+      <c r="C40" s="48"/>
+      <c r="D40" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="62" t="s">
+      <c r="F40" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H40" s="63" t="s">
+      <c r="H40" s="37" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="28">
@@ -2893,20 +2893,20 @@
       <c r="L40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M40" s="62" t="s">
+      <c r="M40" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N40" s="65"/>
+      <c r="N40" s="54"/>
     </row>
     <row r="41" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="63"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="1">
         <v>2</v>
       </c>
@@ -2919,28 +2919,28 @@
       <c r="L41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M41" s="36"/>
-      <c r="N41" s="65"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="54"/>
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42"/>
-      <c r="B42" s="36">
+      <c r="B42" s="42">
         <v>17</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="43" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G42" s="63" t="s">
+      <c r="G42" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="37" t="s">
         <v>69</v>
       </c>
       <c r="I42" s="28">
@@ -2955,20 +2955,20 @@
       <c r="L42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="62" t="s">
+      <c r="M42" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="65"/>
+      <c r="N42" s="54"/>
     </row>
     <row r="43" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="63"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="1">
         <v>2</v>
       </c>
@@ -2981,15 +2981,15 @@
       <c r="L43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M43" s="36"/>
-      <c r="N43" s="66"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="55"/>
     </row>
     <row r="44" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="1">
         <v>18</v>
       </c>
-      <c r="C44" s="70" t="s">
+      <c r="C44" s="50" t="s">
         <v>148</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -3029,7 +3029,7 @@
       <c r="B45" s="1">
         <v>19</v>
       </c>
-      <c r="C45" s="71"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="28" t="s">
         <v>18</v>
       </c>
@@ -3064,23 +3064,23 @@
     </row>
     <row r="46" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46"/>
-      <c r="B46" s="36">
+      <c r="B46" s="42">
         <v>20</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="62" t="s">
+      <c r="C46" s="51"/>
+      <c r="D46" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F46" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G46" s="63" t="s">
+      <c r="G46" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="37" t="s">
         <v>96</v>
       </c>
       <c r="I46" s="1">
@@ -3092,23 +3092,23 @@
       <c r="K46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L46" s="36" t="s">
+      <c r="L46" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M46" s="62" t="s">
+      <c r="M46" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N46" s="80"/>
     </row>
     <row r="47" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="1">
         <v>2</v>
       </c>
@@ -3118,29 +3118,29 @@
       <c r="K47" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="L47" s="36"/>
-      <c r="M47" s="62"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="82"/>
     </row>
     <row r="48" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48"/>
-      <c r="B48" s="36">
+      <c r="B48" s="42">
         <v>20</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="62" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F48" s="62" t="s">
+      <c r="F48" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="63" t="s">
+      <c r="G48" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H48" s="63" t="s">
+      <c r="H48" s="37" t="s">
         <v>100</v>
       </c>
       <c r="I48" s="1">
@@ -3152,23 +3152,23 @@
       <c r="K48" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L48" s="36" t="s">
+      <c r="L48" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M48" s="62" t="s">
+      <c r="M48" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N48" s="80"/>
     </row>
     <row r="49" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="1">
         <v>2</v>
       </c>
@@ -3178,29 +3178,29 @@
       <c r="K49" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="L49" s="36"/>
-      <c r="M49" s="62"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="82"/>
     </row>
     <row r="50" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50"/>
-      <c r="B50" s="36">
+      <c r="B50" s="42">
         <v>21</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="62" t="s">
+      <c r="C50" s="51"/>
+      <c r="D50" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="62" t="s">
+      <c r="F50" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G50" s="63" t="s">
+      <c r="G50" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="H50" s="63" t="s">
+      <c r="H50" s="37" t="s">
         <v>108</v>
       </c>
       <c r="I50" s="1">
@@ -3212,23 +3212,23 @@
       <c r="K50" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L50" s="36" t="s">
+      <c r="L50" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M50" s="62" t="s">
+      <c r="M50" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="80"/>
     </row>
     <row r="51" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="1">
         <v>2</v>
       </c>
@@ -3238,29 +3238,29 @@
       <c r="K51" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="L51" s="36"/>
-      <c r="M51" s="62"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="36"/>
       <c r="N51" s="82"/>
     </row>
     <row r="52" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52"/>
-      <c r="B52" s="36">
+      <c r="B52" s="42">
         <v>22</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="62" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F52" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G52" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="H52" s="63" t="s">
+      <c r="H52" s="37" t="s">
         <v>96</v>
       </c>
       <c r="I52" s="1">
@@ -3272,23 +3272,23 @@
       <c r="K52" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="L52" s="36" t="s">
+      <c r="L52" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="62" t="s">
+      <c r="M52" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N52" s="80"/>
     </row>
     <row r="53" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
       <c r="I53" s="1">
         <v>2</v>
       </c>
@@ -3298,19 +3298,19 @@
       <c r="K53" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="L53" s="36"/>
-      <c r="M53" s="62"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="36"/>
       <c r="N53" s="81"/>
     </row>
     <row r="54" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54"/>
-      <c r="B54" s="36"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="1">
         <v>3</v>
       </c>
@@ -3320,31 +3320,31 @@
       <c r="K54" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="L54" s="36"/>
-      <c r="M54" s="62"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="36"/>
       <c r="N54" s="82"/>
     </row>
     <row r="55" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55"/>
-      <c r="B55" s="43">
+      <c r="B55" s="38">
         <v>23</v>
       </c>
-      <c r="C55" s="73" t="s">
+      <c r="C55" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F55" s="62" t="s">
+      <c r="F55" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="63" t="s">
+      <c r="G55" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H55" s="63" t="s">
+      <c r="H55" s="37" t="s">
         <v>122</v>
       </c>
       <c r="I55" s="1">
@@ -3356,23 +3356,23 @@
       <c r="K55" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L55" s="36" t="s">
+      <c r="L55" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M55" s="62" t="s">
+      <c r="M55" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N55" s="83"/>
     </row>
     <row r="56" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
       <c r="I56" s="1">
         <v>2</v>
       </c>
@@ -3382,19 +3382,19 @@
       <c r="K56" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L56" s="36"/>
-      <c r="M56" s="62"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="36"/>
       <c r="N56" s="83"/>
     </row>
     <row r="57" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="1">
         <v>3</v>
       </c>
@@ -3404,19 +3404,19 @@
       <c r="K57" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L57" s="36"/>
-      <c r="M57" s="62"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="36"/>
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="1">
         <v>4</v>
       </c>
@@ -3426,19 +3426,19 @@
       <c r="K58" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L58" s="36"/>
-      <c r="M58" s="62"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="83"/>
     </row>
     <row r="59" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="1">
         <v>5</v>
       </c>
@@ -3448,19 +3448,19 @@
       <c r="K59" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="L59" s="36"/>
-      <c r="M59" s="62"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="83"/>
     </row>
     <row r="60" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
       <c r="I60" s="1">
         <v>6</v>
       </c>
@@ -3470,29 +3470,29 @@
       <c r="K60" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="L60" s="36"/>
-      <c r="M60" s="62"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="83"/>
     </row>
     <row r="61" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
-      <c r="B61" s="43">
+      <c r="B61" s="38">
         <v>24</v>
       </c>
-      <c r="C61" s="74"/>
-      <c r="D61" s="62" t="s">
+      <c r="C61" s="45"/>
+      <c r="D61" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="60" t="s">
+      <c r="E61" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F61" s="62" t="s">
+      <c r="F61" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G61" s="63" t="s">
+      <c r="G61" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="H61" s="63" t="s">
+      <c r="H61" s="37" t="s">
         <v>173</v>
       </c>
       <c r="I61" s="1">
@@ -3507,20 +3507,20 @@
       <c r="L61" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="M61" s="62" t="s">
+      <c r="M61" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N61" s="83"/>
     </row>
     <row r="62" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="1">
         <v>2</v>
       </c>
@@ -3533,28 +3533,28 @@
       <c r="L62" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="M62" s="62"/>
+      <c r="M62" s="36"/>
       <c r="N62" s="83"/>
     </row>
     <row r="63" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63"/>
-      <c r="B63" s="43">
+      <c r="B63" s="38">
         <v>25</v>
       </c>
-      <c r="C63" s="74"/>
-      <c r="D63" s="62" t="s">
+      <c r="C63" s="45"/>
+      <c r="D63" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="60" t="s">
+      <c r="E63" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F63" s="62" t="s">
+      <c r="F63" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="G63" s="63" t="s">
+      <c r="G63" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="63" t="s">
+      <c r="H63" s="37" t="s">
         <v>176</v>
       </c>
       <c r="I63" s="1">
@@ -3566,23 +3566,23 @@
       <c r="K63" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L63" s="36" t="s">
+      <c r="L63" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M63" s="62" t="s">
+      <c r="M63" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N63" s="83"/>
     </row>
     <row r="64" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
       <c r="I64" s="1">
         <v>2</v>
       </c>
@@ -3592,19 +3592,19 @@
       <c r="K64" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="L64" s="36"/>
-      <c r="M64" s="62"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="36"/>
       <c r="N64" s="83"/>
     </row>
     <row r="65" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
       <c r="I65" s="1">
         <v>3</v>
       </c>
@@ -3614,19 +3614,19 @@
       <c r="K65" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L65" s="36"/>
-      <c r="M65" s="62"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="36"/>
       <c r="N65" s="83"/>
     </row>
     <row r="66" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="1">
         <v>4</v>
       </c>
@@ -3636,29 +3636,29 @@
       <c r="K66" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="L66" s="36"/>
-      <c r="M66" s="62"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="83"/>
     </row>
     <row r="67" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67"/>
-      <c r="B67" s="43">
+      <c r="B67" s="38">
         <v>26</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="62" t="s">
+      <c r="C67" s="45"/>
+      <c r="D67" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F67" s="62" t="s">
+      <c r="F67" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G67" s="63" t="s">
+      <c r="G67" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="H67" s="63" t="s">
+      <c r="H67" s="37" t="s">
         <v>178</v>
       </c>
       <c r="I67" s="1">
@@ -3670,23 +3670,23 @@
       <c r="K67" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L67" s="36" t="s">
+      <c r="L67" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M67" s="62" t="s">
+      <c r="M67" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N67" s="83"/>
     </row>
     <row r="68" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
       <c r="I68" s="1">
         <v>2</v>
       </c>
@@ -3696,19 +3696,19 @@
       <c r="K68" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L68" s="36"/>
-      <c r="M68" s="62"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="36"/>
       <c r="N68" s="83"/>
     </row>
     <row r="69" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
       <c r="I69" s="1">
         <v>3</v>
       </c>
@@ -3718,19 +3718,19 @@
       <c r="K69" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="L69" s="36"/>
-      <c r="M69" s="62"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="36"/>
       <c r="N69" s="83"/>
     </row>
     <row r="70" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
       <c r="I70" s="1">
         <v>4</v>
       </c>
@@ -3740,29 +3740,29 @@
       <c r="K70" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="L70" s="36"/>
-      <c r="M70" s="62"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="36"/>
       <c r="N70" s="83"/>
     </row>
     <row r="71" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71"/>
-      <c r="B71" s="43">
+      <c r="B71" s="38">
         <v>27</v>
       </c>
-      <c r="C71" s="74"/>
-      <c r="D71" s="62" t="s">
+      <c r="C71" s="45"/>
+      <c r="D71" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="60" t="s">
+      <c r="E71" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F71" s="62" t="s">
+      <c r="F71" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="63" t="s">
+      <c r="G71" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="H71" s="63" t="s">
+      <c r="H71" s="37" t="s">
         <v>180</v>
       </c>
       <c r="I71" s="1">
@@ -3774,23 +3774,23 @@
       <c r="K71" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="L71" s="36" t="s">
+      <c r="L71" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="M71" s="62" t="s">
+      <c r="M71" s="36" t="s">
         <v>17</v>
       </c>
       <c r="N71" s="83"/>
     </row>
     <row r="72" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="74"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
       <c r="I72" s="1">
         <v>2</v>
       </c>
@@ -3800,19 +3800,19 @@
       <c r="K72" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L72" s="36"/>
-      <c r="M72" s="62"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="36"/>
       <c r="N72" s="83"/>
     </row>
     <row r="73" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="63"/>
-      <c r="H73" s="63"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
       <c r="I73" s="1">
         <v>3</v>
       </c>
@@ -3822,19 +3822,19 @@
       <c r="K73" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="L73" s="36"/>
-      <c r="M73" s="62"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="36"/>
       <c r="N73" s="83"/>
     </row>
     <row r="74" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="63"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
       <c r="I74" s="1">
         <v>4</v>
       </c>
@@ -3844,29 +3844,29 @@
       <c r="K74" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="L74" s="36"/>
-      <c r="M74" s="62"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="36"/>
       <c r="N74" s="83"/>
     </row>
     <row r="75" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75"/>
-      <c r="B75" s="43">
+      <c r="B75" s="38">
         <v>28</v>
       </c>
-      <c r="C75" s="74"/>
-      <c r="D75" s="62" t="s">
+      <c r="C75" s="45"/>
+      <c r="D75" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E75" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F75" s="62" t="s">
+      <c r="F75" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="G75" s="63" t="s">
+      <c r="G75" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H75" s="63" t="s">
+      <c r="H75" s="37" t="s">
         <v>182</v>
       </c>
       <c r="I75" s="1">
@@ -3881,20 +3881,20 @@
       <c r="L75" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M75" s="62" t="s">
+      <c r="M75" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N75" s="83"/>
     </row>
     <row r="76" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="74"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
       <c r="I76" s="1">
         <v>2</v>
       </c>
@@ -3907,18 +3907,18 @@
       <c r="L76" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M76" s="62"/>
+      <c r="M76" s="36"/>
       <c r="N76" s="83"/>
     </row>
     <row r="77" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
       <c r="I77" s="1">
         <v>3</v>
       </c>
@@ -3931,28 +3931,28 @@
       <c r="L77" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="M77" s="62"/>
+      <c r="M77" s="36"/>
       <c r="N77" s="83"/>
     </row>
     <row r="78" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
-      <c r="B78" s="43">
+      <c r="B78" s="38">
         <v>29</v>
       </c>
-      <c r="C78" s="74"/>
-      <c r="D78" s="62" t="s">
+      <c r="C78" s="45"/>
+      <c r="D78" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E78" s="60" t="s">
+      <c r="E78" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F78" s="62" t="s">
+      <c r="F78" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="G78" s="63" t="s">
+      <c r="G78" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="H78" s="63" t="s">
+      <c r="H78" s="37" t="s">
         <v>185</v>
       </c>
       <c r="I78" s="1">
@@ -3967,20 +3967,20 @@
       <c r="L78" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M78" s="62" t="s">
+      <c r="M78" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N78" s="83"/>
     </row>
     <row r="79" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="74"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="63"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
       <c r="I79" s="1">
         <v>2</v>
       </c>
@@ -3993,18 +3993,18 @@
       <c r="L79" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M79" s="62"/>
+      <c r="M79" s="36"/>
       <c r="N79" s="83"/>
     </row>
     <row r="80" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
       <c r="I80" s="1">
         <v>3</v>
       </c>
@@ -4017,28 +4017,28 @@
       <c r="L80" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="M80" s="62"/>
+      <c r="M80" s="36"/>
       <c r="N80" s="83"/>
     </row>
     <row r="81" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81"/>
-      <c r="B81" s="43">
+      <c r="B81" s="38">
         <v>30</v>
       </c>
-      <c r="C81" s="74"/>
-      <c r="D81" s="62" t="s">
+      <c r="C81" s="45"/>
+      <c r="D81" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="60" t="s">
+      <c r="E81" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F81" s="62" t="s">
+      <c r="F81" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="G81" s="63" t="s">
+      <c r="G81" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="H81" s="63" t="s">
+      <c r="H81" s="37" t="s">
         <v>186</v>
       </c>
       <c r="I81" s="1">
@@ -4053,20 +4053,20 @@
       <c r="L81" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M81" s="62" t="s">
+      <c r="M81" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N81" s="83"/>
     </row>
     <row r="82" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="74"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
-      <c r="H82" s="63"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
       <c r="I82" s="1">
         <v>2</v>
       </c>
@@ -4079,18 +4079,18 @@
       <c r="L82" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="M82" s="62"/>
+      <c r="M82" s="36"/>
       <c r="N82" s="83"/>
     </row>
     <row r="83" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="62"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
       <c r="I83" s="1">
         <v>3</v>
       </c>
@@ -4103,28 +4103,28 @@
       <c r="L83" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="M83" s="62"/>
+      <c r="M83" s="36"/>
       <c r="N83" s="83"/>
     </row>
     <row r="84" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84"/>
-      <c r="B84" s="43">
+      <c r="B84" s="38">
         <v>30</v>
       </c>
-      <c r="C84" s="74"/>
-      <c r="D84" s="62" t="s">
+      <c r="C84" s="45"/>
+      <c r="D84" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="60" t="s">
+      <c r="E84" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="F84" s="62" t="s">
+      <c r="F84" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="G84" s="63" t="s">
+      <c r="G84" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="H84" s="63" t="s">
+      <c r="H84" s="37" t="s">
         <v>189</v>
       </c>
       <c r="I84" s="1">
@@ -4139,20 +4139,20 @@
       <c r="L84" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M84" s="62" t="s">
+      <c r="M84" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N84" s="83"/>
     </row>
     <row r="85" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="63"/>
-      <c r="H85" s="63"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
       <c r="I85" s="1">
         <v>2</v>
       </c>
@@ -4165,18 +4165,18 @@
       <c r="L85" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M85" s="62"/>
+      <c r="M85" s="36"/>
       <c r="N85" s="83"/>
     </row>
     <row r="86" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="74"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
-      <c r="H86" s="63"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
       <c r="I86" s="1">
         <v>3</v>
       </c>
@@ -4189,18 +4189,18 @@
       <c r="L86" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M86" s="62"/>
+      <c r="M86" s="36"/>
       <c r="N86" s="83"/>
     </row>
     <row r="87" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="63"/>
-      <c r="H87" s="63"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
       <c r="I87" s="1">
         <v>4</v>
       </c>
@@ -4213,18 +4213,18 @@
       <c r="L87" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M87" s="62"/>
+      <c r="M87" s="36"/>
       <c r="N87" s="83"/>
     </row>
     <row r="88" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
-      <c r="H88" s="63"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
       <c r="I88" s="1">
         <v>5</v>
       </c>
@@ -4237,28 +4237,28 @@
       <c r="L88" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="M88" s="62"/>
+      <c r="M88" s="36"/>
       <c r="N88" s="83"/>
     </row>
     <row r="89" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89"/>
-      <c r="B89" s="36">
+      <c r="B89" s="42">
         <v>31</v>
       </c>
-      <c r="C89" s="74"/>
-      <c r="D89" s="62" t="s">
+      <c r="C89" s="45"/>
+      <c r="D89" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="60" t="s">
+      <c r="E89" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F89" s="62" t="s">
+      <c r="F89" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="G89" s="63" t="s">
+      <c r="G89" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="H89" s="63" t="s">
+      <c r="H89" s="37" t="s">
         <v>150</v>
       </c>
       <c r="I89" s="1">
@@ -4273,20 +4273,20 @@
       <c r="L89" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="M89" s="62" t="s">
+      <c r="M89" s="36" t="s">
         <v>16</v>
       </c>
       <c r="N89" s="83"/>
     </row>
     <row r="90" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
       <c r="I90" s="1">
         <v>2</v>
       </c>
@@ -4299,24 +4299,215 @@
       <c r="L90" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="M90" s="62"/>
+      <c r="M90" s="36"/>
       <c r="N90" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="G55:G60"/>
-    <mergeCell ref="H55:H60"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="C3:C27"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="M8:M11"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="N8:N11"/>
+    <mergeCell ref="N12:N15"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="N38:N43"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="C28:C43"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="H52:H54"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="E67:E70"/>
+    <mergeCell ref="F67:F70"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="M67:M70"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="L63:L66"/>
+    <mergeCell ref="M63:M66"/>
+    <mergeCell ref="N63:N66"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="F71:F74"/>
+    <mergeCell ref="G71:G74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:N80"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="M75:M77"/>
+    <mergeCell ref="C55:C90"/>
+    <mergeCell ref="N75:N77"/>
+    <mergeCell ref="N67:N70"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="L55:L60"/>
+    <mergeCell ref="M55:M60"/>
+    <mergeCell ref="N55:N60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="E55:E60"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="D89:D90"/>
     <mergeCell ref="E89:E90"/>
@@ -4341,221 +4532,30 @@
     <mergeCell ref="H81:H83"/>
     <mergeCell ref="M81:M83"/>
     <mergeCell ref="N89:N90"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:N80"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="M75:M77"/>
-    <mergeCell ref="C55:C90"/>
-    <mergeCell ref="N75:N77"/>
-    <mergeCell ref="N67:N70"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="L55:L60"/>
-    <mergeCell ref="M55:M60"/>
-    <mergeCell ref="N55:N60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="F71:F74"/>
-    <mergeCell ref="G71:G74"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="D67:D70"/>
-    <mergeCell ref="E67:E70"/>
-    <mergeCell ref="F67:F70"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="H67:H70"/>
-    <mergeCell ref="L67:L70"/>
-    <mergeCell ref="M67:M70"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="L63:L66"/>
-    <mergeCell ref="M63:M66"/>
-    <mergeCell ref="N63:N66"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="G55:G60"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
     <mergeCell ref="N52:N54"/>
     <mergeCell ref="N48:N49"/>
     <mergeCell ref="N46:N47"/>
-    <mergeCell ref="C28:C43"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="H52:H54"/>
     <mergeCell ref="L52:L54"/>
     <mergeCell ref="M52:M54"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B46:B47"/>
     <mergeCell ref="L46:L47"/>
     <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
     <mergeCell ref="L48:L49"/>
     <mergeCell ref="M48:M49"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="N38:N43"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="N8:N11"/>
-    <mergeCell ref="N12:N15"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="C3:C27"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="M8:M11"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <conditionalFormatting sqref="M1:M30 M32 M34 M36:M46 M48 M50 M52:M53 M55 M61 M63 M67 M71 M75 M78 M81 M84 M89 M91:M1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
